--- a/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
+++ b/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01001433382659395</v>
+        <v>0.01008892792473788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009994915228949573</v>
+        <v>0.009809237561816982</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009988125062444293</v>
+        <v>0.009823384111993872</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008122215335000831</v>
+        <v>0.008123353196930977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008123720534826661</v>
+        <v>0.008123132130881401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008123768522600709</v>
+        <v>0.008123162993740805</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03092728625812262</v>
+        <v>0.02853897607534562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02912362036232245</v>
+        <v>0.02761005427836594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02775436488481063</v>
+        <v>0.02913481969957519</v>
       </c>
     </row>
   </sheetData>
